--- a/examplesheet/example.xlsx
+++ b/examplesheet/example.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS317813\PycharmProjects\ExcelPrototyping\examplesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricku\PycharmProjects\ExcelPrototyping\examplesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC622A0-D337-4662-8B77-7D825FD540B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFA51C-C940-4834-80EB-AA40F65CA1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21945" yWindow="2010" windowWidth="15375" windowHeight="7875" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>LOTE</t>
   </si>
@@ -128,15 +128,6 @@
     <t>SATÉLITE</t>
   </si>
   <si>
-    <t>Ação 4 - Estimativa</t>
-  </si>
-  <si>
-    <t>Ação 4 - Motivo Estimativa</t>
-  </si>
-  <si>
-    <t>Ação 5 - Subida da Estimativa</t>
-  </si>
-  <si>
     <t>02/02 - 859.612</t>
   </si>
   <si>
@@ -162,6 +153,21 @@
   </si>
   <si>
     <t>01/02 - RITM0151254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estimativa</t>
+  </si>
+  <si>
+    <t>Motivo Estimativa</t>
+  </si>
+  <si>
+    <t>Subida da Estimativa</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Coluna Extra</t>
   </si>
 </sst>
 </file>
@@ -303,29 +309,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36D7EF-D9A0-4BAE-B652-5F877B0E7F92}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,9 +679,10 @@
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,382 +714,388 @@
         <v>25</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12">
+        <v>691969</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45291</v>
+      </c>
+      <c r="F2" s="13">
+        <v>45322</v>
+      </c>
+      <c r="G2" s="13">
+        <v>45323</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12">
+        <v>737206</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45315</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45346</v>
+      </c>
+      <c r="G3" s="13">
+        <v>45348</v>
+      </c>
+      <c r="H3" s="7">
+        <v>120</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M3" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="N3" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
-        <v>691969</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B4" s="12">
+        <v>426464</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45291</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45322</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45323</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4000581129</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45289</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45322</v>
+      </c>
+      <c r="G5" s="13">
+        <v>45323</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12">
+        <v>367675</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45316</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45347</v>
+      </c>
+      <c r="G6" s="13">
+        <v>45348</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>379407</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13">
+        <v>45315</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45346</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45348</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="I7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12">
+        <v>655434</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E8" s="13">
+        <v>45301</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45330</v>
+      </c>
+      <c r="G8" s="13">
+        <v>45331</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>366899</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45316</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45347</v>
+      </c>
+      <c r="G9" s="13">
+        <v>45348</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>647538</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="13">
         <v>45291</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F10" s="13">
         <v>45322</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G10" s="13">
         <v>45323</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <v>378030</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13">
+        <v>45315</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45346</v>
+      </c>
+      <c r="G11" s="13">
+        <v>45348</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>737206</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9">
-        <v>45315</v>
-      </c>
-      <c r="F3" s="9">
-        <v>45346</v>
-      </c>
-      <c r="G3" s="9">
-        <v>45348</v>
-      </c>
-      <c r="H3" s="10">
-        <v>120</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>426464</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9">
-        <v>45291</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45322</v>
-      </c>
-      <c r="G4" s="9">
-        <v>45323</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4000581129</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9">
-        <v>45289</v>
-      </c>
-      <c r="F5" s="9">
-        <v>45322</v>
-      </c>
-      <c r="G5" s="9">
-        <v>45323</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7">
-        <v>367675</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9">
-        <v>45316</v>
-      </c>
-      <c r="F6" s="9">
-        <v>45347</v>
-      </c>
-      <c r="G6" s="9">
-        <v>45348</v>
-      </c>
-      <c r="H6" s="10">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>379407</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9">
-        <v>45315</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45346</v>
-      </c>
-      <c r="G7" s="9">
-        <v>45348</v>
-      </c>
-      <c r="H7" s="10">
-        <v>4</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7">
-        <v>655434</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9">
-        <v>45301</v>
-      </c>
-      <c r="F8" s="9">
-        <v>45330</v>
-      </c>
-      <c r="G8" s="9">
-        <v>45331</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>366899</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9">
-        <v>45316</v>
-      </c>
-      <c r="F9" s="9">
-        <v>45347</v>
-      </c>
-      <c r="G9" s="9">
-        <v>45348</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <v>647538</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9">
-        <v>45291</v>
-      </c>
-      <c r="F10" s="9">
-        <v>45322</v>
-      </c>
-      <c r="G10" s="9">
-        <v>45323</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
-        <v>378030</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9">
-        <v>45315</v>
-      </c>
-      <c r="F11" s="9">
-        <v>45346</v>
-      </c>
-      <c r="G11" s="9">
-        <v>45348</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B11">

--- a/examplesheet/example.xlsx
+++ b/examplesheet/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricku\PycharmProjects\ExcelPrototyping\examplesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS317813\PycharmProjects\ExcelPrototyping\examplesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFA51C-C940-4834-80EB-AA40F65CA1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17B482-0C72-4511-BED7-FD90F8D08BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>LOTE</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Bateria PTZ</t>
   </si>
   <si>
-    <t>RITM0123456</t>
-  </si>
-  <si>
     <t>29/01 - 852.874</t>
   </si>
   <si>
@@ -164,10 +161,7 @@
     <t>Subida da Estimativa</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>Coluna Extra</t>
+    <t>Chamado</t>
   </si>
 </sst>
 </file>
@@ -315,7 +309,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -660,14 +654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36D7EF-D9A0-4BAE-B652-5F877B0E7F92}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
@@ -714,16 +708,16 @@
         <v>25</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,12 +792,7 @@
       <c r="L3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -872,13 +861,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,13 +937,13 @@
         <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/examplesheet/example.xlsx
+++ b/examplesheet/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS317813\PycharmProjects\ExcelPrototyping\examplesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricku\PycharmProjects\ExcelPrototyping\examplesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17B482-0C72-4511-BED7-FD90F8D08BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CEA27-3420-4871-A7B4-D5EE497A8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>LOTE</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Chamado</t>
+  </si>
+  <si>
+    <t>06/02 - TICKET00001
+06-02 - TICKET00001
+RITM000TESTE2
+RITM000TESTE</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,6 +331,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,14 +664,14 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -754,6 +763,9 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
+      <c r="N2" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">

--- a/examplesheet/example.xlsx
+++ b/examplesheet/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricku\PycharmProjects\ExcelPrototyping\examplesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS317813\PycharmProjects\ExcelPrototyping\examplesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CEA27-3420-4871-A7B4-D5EE497A8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF4DE1F-4F2A-4AA5-B7AE-B21A5BEBDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,7 @@
     <t>Chamado</t>
   </si>
   <si>
-    <t>06/02 - TICKET00001
-06-02 - TICKET00001
-RITM000TESTE2
-RITM000TESTE</t>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -289,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,9 +328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,14 +658,14 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -763,7 +757,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>42</v>
       </c>
     </row>

--- a/examplesheet/example.xlsx
+++ b/examplesheet/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS317813\PycharmProjects\ExcelPrototyping\examplesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF4DE1F-4F2A-4AA5-B7AE-B21A5BEBDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43327CDF-7CA5-4E85-8220-85AD609E8F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
+    <workbookView xWindow="-28920" yWindow="-2460" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEBC942-0CB9-402A-9791-B1E5E7477842}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -164,14 +164,16 @@
     <t>Chamado</t>
   </si>
   <si>
-    <t>Teste</t>
+    <t>07/02 - TICKET00001
+07/02 - TICKET00001
+07/02 - TICKET00001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +194,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF84BD00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBFFBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,6 +344,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -657,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36D7EF-D9A0-4BAE-B652-5F877B0E7F92}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +695,7 @@
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="54.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +776,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1111,6 +1130,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 Interno&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Interno</oddFooter>
